--- a/FowlerModule04-2.xlsx
+++ b/FowlerModule04-2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t xml:space="preserve">Homeowners</t>
   </si>
@@ -47,12 +47,36 @@
     <t xml:space="preserve">Confidence Interval</t>
   </si>
   <si>
+    <t xml:space="preserve">Note: I first did this assignment in a jupyter notebook with python. I got a different confidence interval.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI High</t>
   </si>
   <si>
+    <t xml:space="preserve">github: https://github.com/drpafowler/Module-4/blob/main/eda.ipynb </t>
+  </si>
+  <si>
     <t xml:space="preserve">CI Low</t>
   </si>
   <si>
+    <t xml:space="preserve">Note: These are the same values that I got doing this with python.  I am unsure why the above function calculates this differently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence Interval (*.NORM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some detective work here.  =CONFIDENCE is replaced by  CONFIDENCE.NORM and CONFIDENCE.T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence Interval (*.T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notice that the two values correspond to the previous two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since we are dealing with a sample, the *.NORM is more appropriate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
@@ -69,6 +93,15 @@
   </si>
   <si>
     <t xml:space="preserve">Prediction Interval low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The confidence interval and the prediction interval have different purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The confidence interval is a way to estimate that the true mean falls within the interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prediction interval is a way to predict where a new observation will fall.</t>
   </si>
   <si>
     <t xml:space="preserve">Credit Approval Decisions</t>
@@ -475,15 +508,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.79"/>
   </cols>
@@ -724,11 +757,11 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="n">
-        <f aca="false">STDEV(B2:B28)/SQRT(B38)</f>
+        <f aca="false">STDEV(B2:B28)/SQRT(B45)</f>
         <v>15.5152714034801</v>
       </c>
       <c r="C31" s="4" t="n">
-        <f aca="false">STDEV(C2:C24)/SQRT(C38)</f>
+        <f aca="false">STDEV(C2:C24)/SQRT(C45)</f>
         <v>16.1754589341551</v>
       </c>
     </row>
@@ -754,17 +787,20 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,B32,B38)</f>
+        <f aca="false">CONFIDENCE(0.05,B32,B45)</f>
         <v>30.4093731611852</v>
       </c>
       <c r="C34" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C32,C38)</f>
+        <f aca="false">CONFIDENCE(0.05,C32,C45)</f>
         <v>31.7033169443506</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="4" t="n">
         <f aca="false">B30+B34</f>
@@ -774,10 +810,13 @@
         <f aca="false">C30+C34</f>
         <v>636.572882161742</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="n">
         <f aca="false">B30-B34</f>
@@ -794,84 +833,186 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4" t="n">
+        <f aca="false">B47*B32/SQRT(B45)</f>
+        <v>31.8920971183872</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <f aca="false">C47*C32/SQRT(C45)</f>
+        <v>33.5458486445318</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <f aca="false">B30+B38</f>
+        <v>724.558763785054</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <f aca="false">C30+C38</f>
+        <v>638.415413861923</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <f aca="false">B30-B38</f>
+        <v>660.774569548279</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <f aca="false">C30-C38</f>
+        <v>571.323716572859</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <f aca="false">_xlfn.CONFIDENCE.NORM(0.05,B32,B45)</f>
+        <v>30.4093731611852</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <f aca="false">_xlfn.CONFIDENCE.NORM(0.05,C32,C45)</f>
+        <v>31.7033169443506</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <f aca="false">_xlfn.CONFIDENCE.T(0.05,B32,B45)</f>
+        <v>31.8920971183872</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <f aca="false">_xlfn.CONFIDENCE.T(0.05,C32,C45)</f>
+        <v>33.5458486445318</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="4" t="n">
         <f aca="false">COUNT(B2:B28)</f>
         <v>27</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C45" s="4" t="n">
         <f aca="false">COUNT(C2:C24)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <f aca="false">B38-1</f>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <f aca="false">B45-1</f>
         <v>26</v>
       </c>
-      <c r="C39" s="4" t="n">
-        <f aca="false">C38-1</f>
+      <c r="C46" s="4" t="n">
+        <f aca="false">C45-1</f>
         <v>22</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4" t="n">
-        <f aca="false">_xlfn.T.INV.2T(0.05,B39)</f>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <f aca="false">_xlfn.T.INV.2T(0.05,B46)</f>
         <v>2.05552943864287</v>
       </c>
-      <c r="C40" s="4" t="n">
-        <f aca="false">_xlfn.T.INV.2T(0.05,C39)</f>
+      <c r="C47" s="4" t="n">
+        <f aca="false">_xlfn.T.INV.2T(0.05,C46)</f>
         <v>2.07387306790403</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="4" t="n">
-        <f aca="false">B40*B31*SQRT(1+(1/B38))</f>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <f aca="false">B47*B31*SQRT(1+(1/B45))</f>
         <v>32.4773220257539</v>
       </c>
-      <c r="C41" s="4" t="n">
-        <f aca="false">C40*C31*SQRT(1+(1/C38))</f>
+      <c r="C48" s="4" t="n">
+        <f aca="false">C47*C31*SQRT(1+(1/C45))</f>
         <v>34.2673472862027</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <f aca="false">B30+B41</f>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <f aca="false">B30+B48</f>
         <v>725.143988692421</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <f aca="false">C30+C41</f>
+      <c r="C50" s="4" t="n">
+        <f aca="false">C30+C48</f>
         <v>639.136912503594</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="4" t="n">
-        <f aca="false">B30-B41</f>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <f aca="false">B30-B48</f>
         <v>660.189344640913</v>
       </c>
-      <c r="C44" s="4" t="n">
-        <f aca="false">C30-C41</f>
+      <c r="C51" s="4" t="n">
+        <f aca="false">C30-C48</f>
         <v>570.602217931189</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E35" r:id="rId1" display="https://github.com/drpafowler/Module-4/blob/main/eda.ipynb"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -907,7 +1048,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,27 +1056,27 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>725</v>
@@ -950,12 +1091,12 @@
         <v>0.25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>573</v>
@@ -970,12 +1111,12 @@
         <v>0.7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>677</v>
@@ -990,12 +1131,12 @@
         <v>0.55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>625</v>
@@ -1010,12 +1151,12 @@
         <v>0.65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>527</v>
@@ -1030,12 +1171,12 @@
         <v>0.75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>795</v>
@@ -1050,12 +1191,12 @@
         <v>0.12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>733</v>
@@ -1070,12 +1211,12 @@
         <v>0.2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>620</v>
@@ -1090,12 +1231,12 @@
         <v>0.62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>591</v>
@@ -1110,12 +1251,12 @@
         <v>0.5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>660</v>
@@ -1130,12 +1271,12 @@
         <v>0.35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>700</v>
@@ -1150,12 +1291,12 @@
         <v>0.18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>500</v>
@@ -1170,12 +1311,12 @@
         <v>0.83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>565</v>
@@ -1190,12 +1331,12 @@
         <v>0.7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>620</v>
@@ -1210,12 +1351,12 @@
         <v>0.87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>774</v>
@@ -1230,12 +1371,12 @@
         <v>0.07</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>802</v>
@@ -1250,12 +1391,12 @@
         <v>0.05</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>640</v>
@@ -1270,12 +1411,12 @@
         <v>0.59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>523</v>
@@ -1290,12 +1431,12 @@
         <v>0.79</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>811</v>
@@ -1310,12 +1451,12 @@
         <v>0.03</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>763</v>
@@ -1330,12 +1471,12 @@
         <v>0.7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>555</v>
@@ -1350,12 +1491,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>617</v>
@@ -1370,12 +1511,12 @@
         <v>0.34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>642</v>
@@ -1390,12 +1531,12 @@
         <v>0.25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>688</v>
@@ -1410,12 +1551,12 @@
         <v>0.11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>649</v>
@@ -1430,12 +1571,12 @@
         <v>0.05</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>695</v>
@@ -1450,12 +1591,12 @@
         <v>0.22</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>701</v>
@@ -1470,12 +1611,12 @@
         <v>0.15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>635</v>
@@ -1490,12 +1631,12 @@
         <v>0.85</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>507</v>
@@ -1510,12 +1651,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>677</v>
@@ -1530,12 +1671,12 @@
         <v>0.09</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>485</v>
@@ -1550,12 +1691,12 @@
         <v>0.8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>582</v>
@@ -1570,12 +1711,12 @@
         <v>0.65</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>699</v>
@@ -1590,12 +1731,12 @@
         <v>0.27</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>703</v>
@@ -1610,12 +1751,12 @@
         <v>0.2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>585</v>
@@ -1630,12 +1771,12 @@
         <v>0.78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>620</v>
@@ -1650,12 +1791,12 @@
         <v>0.55</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>695</v>
@@ -1670,12 +1811,12 @@
         <v>0.11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>774</v>
@@ -1690,12 +1831,12 @@
         <v>0.07</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>802</v>
@@ -1710,12 +1851,12 @@
         <v>0.05</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>640</v>
@@ -1730,12 +1871,12 @@
         <v>0.59</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>536</v>
@@ -1750,12 +1891,12 @@
         <v>0.79</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>801</v>
@@ -1770,12 +1911,12 @@
         <v>0.03</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>760</v>
@@ -1790,12 +1931,12 @@
         <v>0.7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>567</v>
@@ -1810,12 +1951,12 @@
         <v>0.95</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>600</v>
@@ -1830,12 +1971,12 @@
         <v>0.81</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>702</v>
@@ -1850,12 +1991,12 @@
         <v>0.15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>636</v>
@@ -1870,12 +2011,12 @@
         <v>0.85</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>509</v>
@@ -1890,12 +2031,12 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>595</v>
@@ -1910,12 +2051,12 @@
         <v>0.78</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>733</v>
@@ -1930,7 +2071,7 @@
         <v>0.24</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
